--- a/01_분석_설계/시나리오/테스트 취합.xlsx
+++ b/01_분석_설계/시나리오/테스트 취합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2C384-BCDF-4D4B-BD69-2B674398CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB586AC-A4DC-447E-B2B1-581CB2C6BAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3931,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>

--- a/01_분석_설계/시나리오/테스트 취합.xlsx
+++ b/01_분석_설계/시나리오/테스트 취합.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\시나리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayj6\Desktop\작업파일\temp0517\01_분석_설계\시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB586AC-A4DC-447E-B2B1-581CB2C6BAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA035E30-C852-4030-AE93-3412CE515689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -21,24 +21,11 @@
     <sheet name="통합테스트 정의서" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="229">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,10 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저 탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,10 +667,6 @@
   </si>
   <si>
     <t>상품 상세 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 조회/수정 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -751,10 +730,6 @@
     <t>단일 상품 주문 페이지</t>
   </si>
   <si>
-    <t>리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 Q&amp;A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,16 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매자 환불 진행</t>
-  </si>
-  <si>
-    <t>관리자 환불 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 주문 확인 페이지</t>
-  </si>
-  <si>
     <t>관리자 상품 조회/수정 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 상세조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,14 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAQ 전체조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 FAQ 답변달기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,14 +771,6 @@
   </si>
   <si>
     <t>FAQ 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ 상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ 내가 쓴 글 조회하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -868,12 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. user 로그인
-2. main페이지 이동
-3. faq 전체조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. faq 전체조회 페이지
 2. 질문하기 클릭
 3. 질문하기
@@ -881,11 +820,6 @@
  유형 : 기타문의
  내용 : 결제를 했는데 돈은 빠져나가고 주문조회는 되지 않습니다 확인 부탁드립니다
 4. 등록하기 클릭시 faq전체조회 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  faq전체조회 페이지
-2.  '결제문의 합니다' 상세조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -976,23 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 로그인 생략
-   - 로그인된 상태
-2. 마이페이지 이동
-3. 마이페이지 내의 주문 내역 중 특정 주문 건에 대한 환불 버튼 클릭
-4. 환불 프로세스 시작
-5. 환불 사유 선택
-6. 환불 정보 확인
-   - 환불하고자 하는 주문 정보 확인
-7. 신청하기 버튼 클릭
-8. 환불신청완료 페이지로 이동
-9. 신청 내역 확인하기 버튼 클릭
-   - 마이페이지 이동
-10. 쇼핑 계속하기 버튼 클릭
-   - 메인페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>환불 처리를 할 때 개별 상품에대한 환불 기능은 구현하지 못했고, 주문번호에 해당해서 환불처리를 진행함
 환불하고자 하는 주문의 정보가 잘 출력되는지 확인하고 페이지 이동이 원할하게 이루어지는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1029,10 +946,6 @@
   </si>
   <si>
     <t>상품 Q&amp;A 확인하고 답변을 작성, 수정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자에서 주문 내역을 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1066,18 +979,6 @@
  결제수단 : 신용카드 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 주문일 : 2024-05-16
- 주문상태 : 결제완료
-(주문을 하면서 바로 결제가 되기때문에, 주문완료를 검색할 필요가 없음)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 수정할 상품 : 루또 틴트
- 판매중, 스킨케어 20000원 999개
--&gt; 50000원 20%로 변경
- 상품 이미지 : makeup-prod-img
- 상세 이미지 : Cute Beige Modern Simple Aesthetic Skincare Products Presentation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 상품명 : 루또 바디로션
  상품 id : 261
  리뷰 제목 : 만족스러워용
@@ -1114,14 +1015,6 @@
   </si>
   <si>
     <t>관리자 Q&amp;A 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정할 상품 : 루또 틴트
-판매중, 스킨케어 20000원 999개
--&gt; 50000원 20%로 변경
-상품 이미지 : makeup-prod-img
-상세 이미지 : Cute Beige Modern Simple Aesthetic Skincare Products Presentation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,12 +1062,132 @@
    - 비밀번호 : !User1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 로그인 생략
+   - 로그인된 상태
+2. 마이페이지 이동
+3. 마이페이지 내의 주문 내역 중 특정 주문 건에 대한 환불 버튼 클릭
+4. 환불 프로세스 시작
+5. 환불 사유 선택
+6. 환불 정보 확인
+   - 환불하고자 하는 주문 정보 확인
+7. 신청하기 버튼 클릭
+8. 환불신청완료 페이지로 이동
+9. 신청 내역 확인하기 버튼 클릭
+   - 마이페이지 이동(X)
+10. 쇼핑 계속하기 버튼 클릭
+   - 메인페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 Q&amp;A 내가 쓴 글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 글 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ, 관리자 답변 만들어놓기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰(다른 아이디로 작성몇개 만들기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 내가 쓴 글 조회하기(수정,삭제까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 : 유저 회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 : 장바구니 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 : FAQ로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 : 회원가입 말고 바로 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 주문 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자에서 주문 내역을 확인하고 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주문일 : 2024-05-16
+ 주문상태 : 결제완료
+(주문을 하면서 바로 결제가 되기때문에, 주문완료를 검색할 필요가 없음)
+상품상세보기 : 어떤 상품인지 확인
+주문상태변경 : 상품준비중으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록(몇 개 만들어놓기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 검색어 틴트
+2. 판매중, 스킨케어 20000원 999개
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 50000원 20%로 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 상품 이미지 : makeup-prod-img
+ 상세 이미지 : Cute Beige Modern Simple Aesthetic Skincare Products Presentation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 : 구매자 환불 진행 확인(여러건하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 환불 진행(여러건있기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 등록(여러건 넣어놓기 전체조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,13 +1285,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="31">
@@ -1683,7 +1735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,13 +1865,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1849,30 +1895,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1891,17 +1919,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3929,613 +4020,628 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:F44"/>
+  <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="95.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="95.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="68"/>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="55" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="69"/>
-    </row>
-    <row r="6" spans="2:6" s="44" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B6" s="57" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
+    </row>
+    <row r="6" spans="2:6" s="43" customFormat="1">
+      <c r="B6" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="181.5">
-      <c r="B7" s="59">
+    <row r="7" spans="2:6" s="43" customFormat="1">
+      <c r="B7" s="73"/>
+      <c r="C7" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="74"/>
+    </row>
+    <row r="8" spans="2:6" ht="181.5">
+      <c r="B8" s="73">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C8" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="2:6" ht="33">
+      <c r="B9" s="53">
+        <v>2</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="E9" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="61"/>
+    </row>
+    <row r="10" spans="2:6" ht="66">
+      <c r="B10" s="53">
+        <v>3</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="2:6" ht="33">
+      <c r="B11" s="53">
+        <v>4</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="2:6" ht="214.5">
+      <c r="B12" s="53">
+        <v>5</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" spans="2:6" ht="198">
+      <c r="B13" s="53">
+        <v>6</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="2:6" ht="49.5">
+      <c r="B14" s="53">
+        <v>7</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="61"/>
+    </row>
+    <row r="15" spans="2:6" ht="49.5">
+      <c r="B15" s="53">
+        <v>8</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="61"/>
+    </row>
+    <row r="16" spans="2:6" ht="33">
+      <c r="B16" s="53">
+        <v>9</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="71"/>
-    </row>
-    <row r="8" spans="2:6" ht="33">
-      <c r="B8" s="59">
-        <v>2</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="47" t="s">
+      <c r="D16" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="2:6" ht="49.5">
+      <c r="B17" s="53">
+        <v>16</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" spans="2:6" ht="33">
+      <c r="B18" s="53">
+        <v>17</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="2:6" s="83" customFormat="1" ht="231">
+      <c r="B19" s="79">
+        <v>10</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="82"/>
+    </row>
+    <row r="20" spans="2:6" s="83" customFormat="1" ht="214.5">
+      <c r="B20" s="79">
+        <v>11</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="82"/>
+    </row>
+    <row r="21" spans="2:6" ht="99">
+      <c r="B21" s="53">
+        <v>18</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="2:6" ht="82.5">
+      <c r="B22" s="53">
+        <v>19</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="53"/>
+      <c r="C23" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="2:6" ht="49.5">
+      <c r="B24" s="53">
+        <v>24</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="2:6" ht="33">
+      <c r="B25" s="53">
+        <v>26</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="53"/>
+      <c r="C26" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="2:6" ht="165">
+      <c r="B27" s="53">
+        <v>30</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" spans="2:6" ht="148.5">
+      <c r="B28" s="53">
+        <v>32</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="2:6" ht="82.5">
+      <c r="B29" s="53">
+        <v>34</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="2:6" ht="49.5">
+      <c r="B30" s="53">
+        <v>33</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="31" spans="2:6" ht="247.5">
+      <c r="B31" s="53">
+        <v>12</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" spans="2:6" ht="115.5">
+      <c r="B32" s="53">
+        <v>36</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="71"/>
-    </row>
-    <row r="9" spans="2:6" ht="66">
-      <c r="B9" s="59">
-        <v>3</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="53"/>
+      <c r="C33" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="61"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="53"/>
+      <c r="C34" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="61"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="53"/>
+      <c r="C35" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="61"/>
+    </row>
+    <row r="36" spans="2:6" ht="99">
+      <c r="B36" s="53">
+        <v>14</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="61"/>
+    </row>
+    <row r="37" spans="2:6" ht="148.5">
+      <c r="B37" s="53">
+        <v>25</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="2:6" ht="99">
+      <c r="B38" s="53">
+        <v>27</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="2:6" ht="66">
+      <c r="B39" s="53">
+        <v>28</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="44"/>
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="2:6" ht="132">
+      <c r="B40" s="53">
+        <v>21</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="E40" s="44"/>
+      <c r="F40" s="61"/>
+    </row>
+    <row r="41" spans="2:6" ht="99">
+      <c r="B41" s="53">
+        <v>15</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="61"/>
+    </row>
+    <row r="42" spans="2:6" ht="132">
+      <c r="B42" s="53">
+        <v>13</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="61"/>
+    </row>
+    <row r="43" spans="2:6" ht="82.5">
+      <c r="B43" s="53">
+        <v>20</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="61"/>
+    </row>
+    <row r="44" spans="2:6" ht="181.5">
+      <c r="B44" s="53">
+        <v>35</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="61"/>
+    </row>
+    <row r="45" spans="2:6" ht="33">
+      <c r="B45" s="53">
+        <v>23</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="2:6" ht="214.5">
+      <c r="B46" s="53">
+        <v>37</v>
+      </c>
+      <c r="C46" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="71"/>
-    </row>
-    <row r="10" spans="2:6" ht="33">
-      <c r="B10" s="59">
-        <v>4</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="71"/>
-    </row>
-    <row r="11" spans="2:6" ht="214.5">
-      <c r="B11" s="59">
-        <v>5</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="71"/>
-    </row>
-    <row r="12" spans="2:6" ht="198">
-      <c r="B12" s="59">
-        <v>6</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="71"/>
-    </row>
-    <row r="13" spans="2:6" ht="49.5">
-      <c r="B13" s="59">
-        <v>7</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="71"/>
-    </row>
-    <row r="14" spans="2:6" ht="49.5">
-      <c r="B14" s="59">
-        <v>8</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="71"/>
-    </row>
-    <row r="15" spans="2:6" ht="33">
-      <c r="B15" s="59">
-        <v>9</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="71"/>
-    </row>
-    <row r="16" spans="2:6" ht="231">
-      <c r="B16" s="59">
-        <v>10</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="71"/>
-    </row>
-    <row r="17" spans="2:6" ht="214.5">
-      <c r="B17" s="59">
-        <v>11</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="71"/>
-    </row>
-    <row r="18" spans="2:6" ht="247.5">
-      <c r="B18" s="59">
-        <v>12</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="71"/>
-    </row>
-    <row r="19" spans="2:6" ht="132">
-      <c r="B19" s="59">
-        <v>13</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="71"/>
-    </row>
-    <row r="20" spans="2:6" ht="66">
-      <c r="B20" s="59">
-        <v>14</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="46" t="s">
+      <c r="D46" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="71"/>
-    </row>
-    <row r="21" spans="2:6" ht="99">
-      <c r="B21" s="59">
-        <v>15</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="71"/>
-    </row>
-    <row r="22" spans="2:6" ht="49.5">
-      <c r="B22" s="59">
-        <v>16</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="71"/>
-    </row>
-    <row r="23" spans="2:6" ht="33">
-      <c r="B23" s="59">
-        <v>17</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="71"/>
-    </row>
-    <row r="24" spans="2:6" ht="99">
-      <c r="B24" s="59">
-        <v>18</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="71"/>
-    </row>
-    <row r="25" spans="2:6" ht="82.5">
-      <c r="B25" s="59">
-        <v>19</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="71"/>
-    </row>
-    <row r="26" spans="2:6" ht="82.5">
-      <c r="B26" s="59">
-        <v>20</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="71"/>
-    </row>
-    <row r="27" spans="2:6" ht="132">
-      <c r="B27" s="59">
-        <v>21</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="71"/>
-    </row>
-    <row r="28" spans="2:6" ht="99">
-      <c r="B28" s="59">
-        <v>22</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28" s="71"/>
-    </row>
-    <row r="29" spans="2:6" ht="33">
-      <c r="B29" s="59">
-        <v>23</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="71"/>
-    </row>
-    <row r="30" spans="2:6" ht="49.5">
-      <c r="B30" s="59">
-        <v>24</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="71"/>
-    </row>
-    <row r="31" spans="2:6" ht="148.5">
-      <c r="B31" s="59">
-        <v>25</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="71"/>
-    </row>
-    <row r="32" spans="2:6" ht="33">
-      <c r="B32" s="59">
-        <v>26</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="71"/>
-    </row>
-    <row r="33" spans="2:6" ht="99">
-      <c r="B33" s="59">
-        <v>27</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="71"/>
-    </row>
-    <row r="34" spans="2:6" ht="66">
-      <c r="B34" s="59">
-        <v>28</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="71"/>
-    </row>
-    <row r="35" spans="2:6" ht="49.5">
-      <c r="B35" s="59">
-        <v>29</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="71"/>
-    </row>
-    <row r="36" spans="2:6" ht="165">
-      <c r="B36" s="59">
-        <v>30</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="71"/>
-    </row>
-    <row r="37" spans="2:6" ht="33">
-      <c r="B37" s="59">
-        <v>31</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="71"/>
-    </row>
-    <row r="38" spans="2:6" ht="148.5">
-      <c r="B38" s="59">
-        <v>32</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="71"/>
-    </row>
-    <row r="39" spans="2:6" ht="49.5">
-      <c r="B39" s="59">
-        <v>33</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="71"/>
-    </row>
-    <row r="40" spans="2:6" ht="82.5">
-      <c r="B40" s="59">
-        <v>34</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="71"/>
-    </row>
-    <row r="41" spans="2:6" ht="181.5">
-      <c r="B41" s="59">
-        <v>35</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="71"/>
-    </row>
-    <row r="42" spans="2:6" ht="115.5">
-      <c r="B42" s="59">
-        <v>36</v>
-      </c>
-      <c r="C42" s="46" t="s">
+      <c r="E46" s="44"/>
+      <c r="F46" s="61"/>
+    </row>
+    <row r="47" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B47" s="55">
+        <v>38</v>
+      </c>
+      <c r="C47" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="71"/>
-    </row>
-    <row r="43" spans="2:6" ht="214.5">
-      <c r="B43" s="59">
-        <v>37</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="71"/>
-    </row>
-    <row r="44" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B44" s="63">
-        <v>38</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="72"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
